--- a/pred_ohlcv/54_21/2020-01-11 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 GNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-122891.4359</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-122891.4359</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-77044.43590000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-80996.44940000001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-84695.78320000001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-44695.78320000001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-47327.90760000001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-46506.90760000001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2006.907600000006</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2001.907600000006</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-389823.2441234332</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-389823.2441234332</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-361154.3207234332</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-341203.9944234332</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-341697.0659234332</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-337906.5591234333</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-371023.3348234333</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-390654.3347234332</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-352717.2986234332</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-298277.3261234332</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-253904.2788234332</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-271600.9950234332</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-284009.0411234332</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-290905.2011234332</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-360026.6350234332</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-341537.5317234332</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-351537.5317234332</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-395604.6128234332</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-397604.6128234332</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-397465.3631234332</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-425499.9614234332</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-419308.1039234332</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-665751.0439234329</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-665751.0439234329</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-686507.158123433</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 GNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-122891.4359</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-122891.4359</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-77044.43590000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-84244.43590000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-80996.44940000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-84695.78320000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-44695.78320000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-47327.90760000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-46506.90760000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2006.907600000006</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2045.907600000006</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2001.907600000006</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-389823.2441234332</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-389823.2441234332</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-361154.3207234332</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-341203.9944234332</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-341697.0659234332</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-337906.5591234333</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-371023.3348234333</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-390654.3347234332</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-352717.2986234332</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-298277.3261234332</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-253904.2788234332</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-341537.5317234332</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-373085.0966234332</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-395604.6128234332</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-397604.6128234332</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-397465.3631234332</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-399969.1258234332</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-425499.9614234332</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-425499.9614234332</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-419308.1039234332</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-663677.838923433</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-663677.838923433</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-617282.190623433</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-665751.0439234329</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-665751.0439234329</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-667126.0439234329</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-688893.901623433</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-633307.158123433</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-633307.158123433</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-641107.158123433</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-641107.158123433</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-641107.158123433</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
